--- a/Slot MachineTask/SlotMachine.xlsx
+++ b/Slot MachineTask/SlotMachine.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="24">
   <si>
     <t>sure</t>
   </si>
@@ -84,7 +84,13 @@
     <t>65%  LOSE</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>equal</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -895,11 +901,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1109,33 +1121,33 @@
         <v>1.5</v>
       </c>
       <c r="B8" s="1">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="C8">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>-1.925</v>
+        <v>1.875</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2.95</v>
+        <v>2.25</v>
       </c>
       <c r="B9" s="1">
         <v>6.75</v>
@@ -1159,7 +1171,7 @@
         <v>-2.3624999999999998</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1222,7 +1234,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="B12" s="1">
         <v>6.75</v>
@@ -1309,7 +1321,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1">
         <v>4.75</v>
@@ -1338,19 +1350,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
@@ -1359,27 +1371,27 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="B17" s="1">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="C17">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
@@ -1388,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>-1.575</v>
+        <v>-1.925</v>
       </c>
       <c r="I17" t="s">
         <v>14</v>
@@ -1396,19 +1408,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="B18" s="1">
-        <v>5</v>
+        <v>6.75</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
@@ -1417,18 +1429,18 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>-3.25</v>
+        <v>-2.3624999999999998</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="B19" s="1">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -1446,27 +1458,27 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>-4.875</v>
+        <v>-3.5750000000000002</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1.25</v>
+        <v>4.25</v>
       </c>
       <c r="B20" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -1475,56 +1487,56 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>-1.4</v>
+        <v>-3.5</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>6.15</v>
+        <v>2.95</v>
       </c>
       <c r="B21" s="1">
-        <v>9.75</v>
+        <v>6.75</v>
       </c>
       <c r="C21">
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>-3.4129999999999998</v>
+        <v>2.3624999999999998</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="B22" s="1">
-        <v>3.85</v>
+        <v>8.75</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1533,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1.925</v>
+        <v>5.6875</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -1541,10 +1553,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="B23" s="1">
-        <v>6.75</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>35</v>
@@ -1562,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2.363</v>
+        <v>1.75</v>
       </c>
       <c r="I23" t="s">
         <v>14</v>
@@ -1570,19 +1582,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="B24" s="1">
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
       <c r="C24">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1591,27 +1603,27 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3.1429999999999998</v>
+        <v>3.375</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>4.25</v>
+        <v>2.25</v>
       </c>
       <c r="B25" s="1">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1620,36 +1632,36 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3.5</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>3.15</v>
+        <v>1.25</v>
       </c>
       <c r="B26" s="1">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="C26">
         <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1.663</v>
+        <v>-1.575</v>
       </c>
       <c r="I26" t="s">
         <v>14</v>
@@ -1657,10 +1669,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>3.95</v>
+        <v>2.75</v>
       </c>
       <c r="B27" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>65</v>
@@ -1678,27 +1690,27 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>-3.9</v>
+        <v>-3.25</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>4.25</v>
+        <v>4.75</v>
       </c>
       <c r="B28" s="1">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="C28">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -1707,18 +1719,18 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>-2.75</v>
+        <v>-4.875</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="B29" s="1">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -1727,7 +1739,7 @@
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -1736,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="I29" t="s">
         <v>14</v>
@@ -1744,10 +1756,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1">
-        <v>6.75</v>
+        <v>9.75</v>
       </c>
       <c r="C30">
         <v>35</v>
@@ -1765,36 +1777,36 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>-2.363</v>
+        <v>-3.4129999999999998</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="B31" s="1">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="C31">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>-2.9249999999999998</v>
+        <v>1.925</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -1802,19 +1814,19 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="B32" s="1">
-        <v>6.95</v>
+        <v>7.25</v>
       </c>
       <c r="C32">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
         <v>11</v>
@@ -1823,27 +1835,27 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>4.5179999999999998</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>7.25</v>
+        <v>3.75</v>
       </c>
       <c r="B33" s="1">
-        <v>10</v>
+        <v>5.25</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
         <v>11</v>
@@ -1852,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>3.1429999999999998</v>
       </c>
       <c r="I33" t="s">
         <v>14</v>
@@ -1860,19 +1872,19 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>6.75</v>
+        <v>4.25</v>
       </c>
       <c r="B34" s="1">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
         <v>11</v>
@@ -1881,7 +1893,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2.8879999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="s">
         <v>14</v>
@@ -1889,19 +1901,19 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>6</v>
+        <v>1.25</v>
       </c>
       <c r="B35" s="1">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="C35">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>11</v>
@@ -1910,56 +1922,56 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>5.5250000000000004</v>
+        <v>1.663</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="B36" s="1">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1.875</v>
+        <v>-3.9</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4.5</v>
+        <v>6.15</v>
       </c>
       <c r="B37" s="1">
-        <v>7</v>
+        <v>9.75</v>
       </c>
       <c r="C37">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
@@ -1968,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>-3.5</v>
+        <v>-3.4129999999999998</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -1976,28 +1988,28 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="B38" s="1">
-        <v>4.75</v>
+        <v>3.85</v>
       </c>
       <c r="C38">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>-1.663</v>
+        <v>1.925</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -2008,103 +2020,103 @@
         <v>2.95</v>
       </c>
       <c r="B39" s="1">
-        <v>5</v>
+        <v>6.75</v>
       </c>
       <c r="C39">
         <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>-1.75</v>
+        <v>2.363</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="B40" s="1">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="C40">
         <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>-4.2249999999999996</v>
+        <v>3.1429999999999998</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>2.25</v>
+        <v>4.25</v>
       </c>
       <c r="B41" s="1">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>50</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>-2.25</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="B42" s="1">
         <v>4.75</v>
       </c>
-      <c r="B42" s="1">
-        <v>7.5</v>
-      </c>
       <c r="C42">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>11</v>
@@ -2113,36 +2125,36 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>4.875</v>
+        <v>1.663</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>1.25</v>
+        <v>3.95</v>
       </c>
       <c r="B43" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>-3.9</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
@@ -2150,106 +2162,106 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>6.15</v>
+        <v>4.25</v>
       </c>
       <c r="B44" s="1">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>3.3250000000000002</v>
+        <v>-2.75</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B45" s="1">
         <v>3.5</v>
       </c>
-      <c r="B45" s="1">
-        <v>7</v>
-      </c>
       <c r="C45">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>4.55</v>
+        <v>-1.75</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="B46" s="1">
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
       <c r="C46">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>2.625</v>
+        <v>-2.363</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>6.15</v>
+        <v>3.25</v>
       </c>
       <c r="B47" s="1">
-        <v>9.75</v>
+        <v>4.5</v>
       </c>
       <c r="C47">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
@@ -2258,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>-3.4129999999999998</v>
+        <v>-2.9249999999999998</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -2266,7 +2278,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="B48" s="1">
         <v>6</v>
@@ -2275,117 +2287,117 @@
         <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>-3.9</v>
+        <v>3.9</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1">
-        <v>5.75</v>
+        <v>6.95</v>
       </c>
       <c r="C49">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>-2.875</v>
+        <v>4.5179999999999998</v>
       </c>
       <c r="I49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="B50" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>3.75</v>
+        <v>6.75</v>
       </c>
       <c r="B51" s="1">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="C51">
         <v>35</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>-2.2749999999999999</v>
+        <v>2.8879999999999999</v>
       </c>
       <c r="I51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="C52">
         <v>65</v>
@@ -2403,27 +2415,30 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>3.25</v>
+        <v>5.5250000000000004</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="B53" s="1">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="C53">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
         <v>11</v>
@@ -2432,114 +2447,114 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>4.2249999999999996</v>
+        <v>1.875</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="B54" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C54">
         <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>1.5</v>
+        <v>-3.5</v>
       </c>
       <c r="I54" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="B55" s="1">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="C55">
         <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>3.3250000000000002</v>
+        <v>-1.663</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2.75</v>
       </c>
       <c r="B56" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>3.9</v>
+        <v>-1.75</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="B57" s="1">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
@@ -2548,125 +2563,795 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>-3.5750000000000002</v>
+        <v>-2</v>
       </c>
       <c r="I57" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>4.25</v>
+        <v>6.25</v>
       </c>
       <c r="B58" s="1">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="C58">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="C59">
         <v>50</v>
       </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" t="s">
         <v>17</v>
       </c>
-      <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>-3.5</v>
-      </c>
-      <c r="I58" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>3.15</v>
-      </c>
-      <c r="B59" s="1">
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>-2.25</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>4.75</v>
       </c>
-      <c r="C59">
-        <v>35</v>
-      </c>
-      <c r="D59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>-1.663</v>
-      </c>
-      <c r="I59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>2.95</v>
-      </c>
       <c r="B60" s="1">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="C60">
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>4.875</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B63" s="1">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>4.55</v>
+      </c>
+      <c r="I63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="C64">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>2.625</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="C65">
+        <v>35</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>-3.4129999999999998</v>
+      </c>
+      <c r="I65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B66" s="1">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
         <v>20</v>
       </c>
-      <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>-3.9</v>
+      </c>
+      <c r="I66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="B67" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C67">
+        <v>35</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B68" s="1">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>4.55</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="B69" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="C69">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>2.625</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="B70" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="C70">
+        <v>35</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>-3.4129999999999998</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>3.95</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>-3.9</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="B72" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="C72">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>-2.875</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C74">
+        <v>35</v>
+      </c>
+      <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>-2.2749999999999999</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B75" s="1">
+        <v>5</v>
+      </c>
+      <c r="C75">
+        <v>65</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>3.25</v>
+      </c>
+      <c r="I75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>4</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="C76">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>4.2249999999999996</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>50</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1.5</v>
+      </c>
+      <c r="I77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="C78">
+        <v>35</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="I78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="B79" s="1">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>65</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>3.9</v>
+      </c>
+      <c r="I79" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B80" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C80">
+        <v>65</v>
+      </c>
+      <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>-3.5750000000000002</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="B81" s="1">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>-3.5</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="C82">
+        <v>35</v>
+      </c>
+      <c r="D82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>-1.663</v>
+      </c>
+      <c r="I82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>65</v>
+      </c>
+      <c r="D83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
         <v>-3.25</v>
       </c>
-      <c r="I60" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="B84" s="1">
         <v>4.75</v>
       </c>
-      <c r="B61" s="1">
+      <c r="C84">
+        <v>35</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>-1.663</v>
+      </c>
+      <c r="I84" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="B85" s="1">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>65</v>
+      </c>
+      <c r="D85" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>-3.25</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="B86" s="1">
         <v>8.5</v>
       </c>
-      <c r="C61">
+      <c r="C86">
         <v>65</v>
       </c>
-      <c r="D61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="D86" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" t="s">
         <v>20</v>
       </c>
-      <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
         <v>-5.5250000000000004</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I86" t="s">
         <v>14</v>
       </c>
     </row>
